--- a/report/reliability/comb/Faculdade de Odontologia - FOUFAL-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Odontologia - FOUFAL-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="480">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1852,6 +1850,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2235,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3132,7 +3140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="802">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3395,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3786,7 +3794,6 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3814,13 +3821,14 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3829,7 +3837,6 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3845,13 +3852,14 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3859,7 +3867,6 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3875,20 +3882,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3904,19 +3911,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3944,13 +3951,14 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3959,7 +3967,6 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3975,13 +3982,14 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3989,7 +3997,6 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4005,20 +4012,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4034,19 +4041,21 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4122,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7422567527167552</v>
+        <v>0.6934035105158775</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7521966457061496</v>
+        <v>0.7059208145267674</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8838588036567987</v>
+        <v>0.8834992394026914</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.20188662747553449</v>
+        <v>0.1558685300898764</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.0354578849412146</v>
+        <v>2.4004446740791887</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03709726567166023</v>
+        <v>0.04134726511827129</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.207547169811321</v>
+        <v>1.6059506531204644</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6147702804737868</v>
+        <v>0.5066703923342591</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.171588062932305</v>
+        <v>0.10361386664445504</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7205728616231841</v>
+        <v>0.6963009349456193</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7328401852199162</v>
+        <v>0.7253589728669286</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8673216909002477</v>
+        <v>0.8882496270680698</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19959705711771927</v>
+        <v>0.18039038028289944</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.743077905721575</v>
+        <v>2.6411165893123165</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0402301150809237</v>
+        <v>0.041783748960503415</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04838992051434102</v>
+        <v>0.0748535321202292</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.160866968519967</v>
+        <v>0.12286123238757803</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7247328631079359</v>
+        <v>0.6755813414740873</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7356836848832651</v>
+        <v>0.6923290918091908</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8664722567812236</v>
+        <v>0.8690748923048108</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2019354210495722</v>
+        <v>0.15790809495815933</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.783345721804389</v>
+        <v>2.2502260479558474</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.039470582309910476</v>
+        <v>0.04329848238913027</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.046109901812618516</v>
+        <v>0.07900233460422423</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.160866968519967</v>
+        <v>0.10361386664445504</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7122954249758429</v>
+        <v>0.684712803079296</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7143290827875534</v>
+        <v>0.6957396637700728</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.86652059509398</v>
+        <v>0.8711418961216195</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.18521725411669174</v>
+        <v>0.1600555508573877</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.5005313448002258</v>
+        <v>2.2866590906686817</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.04140785227509562</v>
+        <v>0.04176667147004044</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05577525622299989</v>
+        <v>0.07806619239643317</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.160866968519967</v>
+        <v>0.10672809049285673</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7208112250462577</v>
+        <v>0.6913565074625432</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7276793088593085</v>
+        <v>0.6804974614009023</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8703425950778195</v>
+        <v>0.8611506836537424</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.19544423024943705</v>
+        <v>0.1507350209740241</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.672141091487466</v>
+        <v>2.129865585371046</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.0400508592433883</v>
+        <v>0.04218971057377426</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05436377933330205</v>
+        <v>0.06788233969194647</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.182309157344643</v>
+        <v>0.10939682413635884</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7387569007085867</v>
+        <v>0.6839273917518854</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7473756885939611</v>
+        <v>0.6816014602413679</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8440091079731922</v>
+        <v>0.8623190020684974</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21194672755656224</v>
+        <v>0.15138679191435353</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.9584472073739425</v>
+        <v>2.1407179215019916</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.037824976682195775</v>
+        <v>0.042344773838789054</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04534161427886247</v>
+        <v>0.06625073541815568</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.19511041744870777</v>
+        <v>0.10361386664445504</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7407823385244795</v>
+        <v>0.6859311590586528</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7489832124107361</v>
+        <v>0.6815621862664034</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8455480308441896</v>
+        <v>0.860281143508606</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.21337532530983816</v>
+        <v>0.1513635453175719</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.9837972973994416</v>
+        <v>2.140330566509274</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.037496626873723134</v>
+        <v>0.04196272554291246</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.0454297163340816</v>
+        <v>0.06647307207313746</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.19511041744870777</v>
+        <v>0.10361386664445504</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.741035401813884</v>
+        <v>0.6893034435828472</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7539686859361331</v>
+        <v>0.7041422478661079</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8660737109214762</v>
+        <v>0.8828374255425612</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.21789030509446128</v>
+        <v>0.1655078059963833</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.06452326528001</v>
+        <v>2.3800026965237158</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03712064270209524</v>
+        <v>0.04261449319931683</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.052916865229295965</v>
+        <v>0.08482477765669229</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.19318574699772675</v>
+        <v>0.12286123238757803</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7278251430002923</v>
+        <v>0.6735574687271385</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7382136414427903</v>
+        <v>0.6844361508748826</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8605640436141493</v>
+        <v>0.8630894579612711</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.20404684255834243</v>
+        <v>0.1530765326127651</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.819908743569859</v>
+        <v>2.168930797277454</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.039092448934450776</v>
+        <v>0.04348658067169624</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05780997012588981</v>
+        <v>0.08272651199996946</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.19318574699772675</v>
+        <v>0.10361386664445504</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7238037701280138</v>
+        <v>0.6561946946591415</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7326305329453963</v>
+        <v>0.6731520872648662</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8847685123657872</v>
+        <v>0.865941719968413</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.199426081546538</v>
+        <v>0.146486219890935</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.740142848082851</v>
+        <v>2.0595269574518147</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03994213915089639</v>
+        <v>0.04655692414338691</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06268633698906416</v>
+        <v>0.08711571290848438</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.13178285095707493</v>
+        <v>0.07645643386292886</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.730315647406814</v>
+        <v>0.6702806086025036</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7422046106682436</v>
+        <v>0.6846186518179422</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8902447423464156</v>
+        <v>0.8874560324968894</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.20743828254870378</v>
+        <v>0.15318612811908638</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.8790453257994537</v>
+        <v>2.1707645546075147</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03916252963411854</v>
+        <v>0.04423524199392653</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06270782219053188</v>
+        <v>0.09274332662502782</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.182309157344643</v>
+        <v>0.0847792198570943</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7074632878919932</v>
+        <v>0.6715862507398557</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.723261485602355</v>
+        <v>0.6933566006102361</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.850253493503025</v>
+        <v>0.8890699872229899</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.1919797042144083</v>
+        <v>0.15855118449870714</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.6135194343173422</v>
+        <v>2.2611169912349376</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.042408204965355564</v>
+        <v>0.04446443170605257</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.053031605631204376</v>
+        <v>0.09231701003001107</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1396512785637935</v>
+        <v>0.0847792198570943</v>
       </c>
     </row>
     <row r="22">
@@ -4515,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7103805656405529</v>
+        <v>0.6472250940657283</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7262854485447074</v>
+        <v>0.6774049287789865</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8517784073885956</v>
+        <v>0.8513687531098277</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.19434229834413955</v>
+        <v>0.14892780264992592</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.653441129392553</v>
+        <v>2.0998613717656247</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.04192557048427814</v>
+        <v>0.047641878461417465</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05371644916707892</v>
+        <v>0.08451102832462751</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.14060666423114848</v>
+        <v>0.10361386664445504</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6475316179921943</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6770391475770651</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8515475445544258</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.14871583309619407</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.0963505096600548</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.04759417551403034</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.08516751447950408</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.10361386664445504</v>
       </c>
     </row>
     <row r="24">
@@ -4550,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>106.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5356652034155333</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.5383252706668954</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.5119563599047903</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.42133130806473224</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.330188679245283</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0575956389327954</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5186799870205928</v>
+        <v>0.1397823895323662</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5176378918701349</v>
+        <v>0.2049523483768763</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.49511394779585466</v>
+        <v>0.14147983824129867</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.3790278681941842</v>
+        <v>0.11111978592842779</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9150943396226414</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2430218519191878</v>
+        <v>0.19146195951337386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.62286508783118</v>
+        <v>0.46113575172001336</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6655426073922898</v>
+        <v>0.4478592264203954</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.625375990312722</v>
+        <v>0.4209178966791134</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5429661926012672</v>
+        <v>0.32082969913234793</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.547169811320755</v>
+        <v>3.330188679245283</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.8633497936106681</v>
+        <v>1.0575956389327954</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5351264518649133</v>
+        <v>0.43608799119970054</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5750651045872051</v>
+        <v>0.424657323202679</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5328422653826917</v>
+        <v>0.39376086414164635</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4157647702247514</v>
+        <v>0.2650547526665679</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.952830188679245</v>
+        <v>3.9150943396226414</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.0987618613841421</v>
+        <v>1.2430218519191878</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.33614845036498026</v>
+        <v>0.351094605308614</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.429068406539225</v>
+        <v>0.5253597554944617</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.4537380754642893</v>
+        <v>0.5579955731332692</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.24343748622964895</v>
+        <v>0.3252241290659043</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.14150943396226415</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>0.7359953318340962</v>
+        <v>0.19146195951337386</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.3213821335638941</v>
+        <v>0.3631297539370158</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.4164296797492503</v>
+        <v>0.5183177825798715</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4402046697481096</v>
+        <v>0.5496182272027577</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2169845695409543</v>
+        <v>0.2604929473416748</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.16037735849056603</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>0.8180906045156402</v>
+        <v>0.7359953318340962</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.42869790156360743</v>
+        <v>0.3518671720652904</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3764858986329373</v>
+        <v>0.5185689473599547</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3337133600906266</v>
+        <v>0.551305449717866</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2621755903477607</v>
+        <v>0.23632827556627684</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.4245283018867925</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3518813219788135</v>
+        <v>0.8180906045156402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5725857074910164</v>
+        <v>0.32033049268622155</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4989582603737042</v>
+        <v>0.36574915372700967</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.4646410524816166</v>
+        <v>0.299313011300312</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.38736357215320993</v>
+        <v>0.2759772362078653</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.3962264150943398</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6828504462484046</v>
+        <v>0.3183515492264467</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.538357506590343</v>
+        <v>0.5150110691528589</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5398378822659025</v>
+        <v>0.5000612027070699</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4441487907334894</v>
+        <v>0.47560352701393976</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.38820348454254483</v>
+        <v>0.3398666659300874</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.1320754716981132</v>
+        <v>2.4245283018867925</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.352778246693066</v>
+        <v>1.3518813219788135</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5005144820707224</v>
+        <v>0.6376590730723826</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.46895437484015856</v>
+        <v>0.5712653648048011</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3580618031119911</v>
+        <v>0.5412006389310453</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3422228062352895</v>
+        <v>0.4444279814763284</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2169811320754715</v>
+        <v>2.3962264150943398</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.366292982462519</v>
+        <v>1.6828504462484046</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6326961322467559</v>
+        <v>0.530914049651968</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6057155783913771</v>
+        <v>0.498877092555296</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6038464181706553</v>
+        <v>0.39692760651257875</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5032960694376377</v>
+        <v>0.3585964490588389</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.7735849056603774</v>
+        <v>1.1320754716981132</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.340099632883953</v>
+        <v>1.352778246693066</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.611162090836046</v>
+        <v>0.526830588897372</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5848138363490154</v>
+        <v>0.44091105054145086</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5810377272286409</v>
+        <v>0.3343954462636867</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.49420831508114776</v>
+        <v>0.3517607163447506</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2169811320754715</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.366292982462519</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>106.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6344886608525614</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5448856068351464</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5386952024523733</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.48704712007902706</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.7735849056603774</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.340099632883953</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>106.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6291925892137444</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5471758038410806</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5405815289293382</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4999135023724268</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.5</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1892374507581378</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.36792452830188677</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4716981132075472</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2358490566037736</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.42452830188679247</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.04716981132075472</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02830188679245283</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.330188679245283</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5188679245283019</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07547169811320754</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5009,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.08490566037735849</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="E46" t="n" s="112">
         <v>0.36792452830188677</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.05660377358490566</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.49056603773584906</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5035,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.9622641509433962</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.018867924528301886</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.009433962264150943</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.009433962264150943</v>
+        <v>0.42452830188679247</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5061,13 +5073,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.9622641509433962</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
@@ -5076,10 +5088,10 @@
         <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.02830188679245283</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.009433962264150943</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5087,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.11320754716981132</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.19811320754716982</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.05660377358490566</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.44339622641509435</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.16037735849056603</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02830188679245283</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5113,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.11320754716981132</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.2358490566037736</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.29245283018867924</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.0660377358490566</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.08490566037735849</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.20754716981132076</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5139,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4716981132075472</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.24528301886792453</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.018867924528301886</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.20754716981132076</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.05660377358490566</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5165,25 +5177,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="C52" t="n" s="110">
         <v>0.19811320754716982</v>
       </c>
-      <c r="C52" t="n" s="110">
-        <v>0.11320754716981132</v>
-      </c>
       <c r="D52" t="n" s="111">
-        <v>0.09433962264150944</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.46226415094339623</v>
+        <v>0.44339622641509435</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1320754716981132</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5191,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="C53" t="n" s="110">
+        <v>0.2358490566037736</v>
+      </c>
+      <c r="D53" t="n" s="111">
         <v>0.29245283018867924</v>
       </c>
-      <c r="C53" t="n" s="110">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="D53" t="n" s="111">
-        <v>0.330188679245283</v>
-      </c>
       <c r="E53" t="n" s="112">
-        <v>0.22641509433962265</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.09433962264150944</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5217,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.19811320754716982</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.46226415094339623</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.29245283018867924</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="D56" t="n" s="111">
         <v>0.330188679245283</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="E56" t="n" s="112">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="C57" t="n" s="110">
         <v>0.04716981132075472</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.4528301886792453</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.1320754716981132</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.03773584905660377</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5268,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5317,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8385277852012895</v>
+        <v>0.8816351977199858</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8415183031350599</v>
+        <v>0.995544291264372</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8328815720464178</v>
+        <v>0.9976858282283303</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5703487771244711</v>
+        <v>0.9867509416828808</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.30987691185697</v>
+        <v>223.4311868960286</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.025082369242604475</v>
+        <v>0.0013067251206240864</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.686320754716981</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8817334933410577</v>
+        <v>0.579886492182318</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5294712883374464</v>
+        <v>0.9900777440765356</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7748845179555952</v>
+        <v>0.9922237176611335</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7882883365982447</v>
+        <v>0.9950141365316014</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7219158925722413</v>
+        <v>0.9900777440765357</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5537975398846755</v>
+        <v>0.9900777440765356</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.723405333140984</v>
+        <v>199.56706452918115</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03680626101737451</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.006462283286806452</v>
-      </c>
+        <v>0.0012061841496222201</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5618640141996256</v>
+        <v>0.9900777440765356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7703637295081968</v>
+        <v>0.6124503311258278</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7778242738407487</v>
+        <v>0.9973175229592468</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7078589329572327</v>
+        <v>0.9946493987834112</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5385283980517132</v>
+        <v>0.9946493987834113</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.500941742318055</v>
+        <v>371.7897703531545</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03827019893479475</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.006272249876768759</v>
-      </c>
+        <v>0.0038463267824591406</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.49707856247526705</v>
+        <v>0.9946493987834113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8247249245044461</v>
+        <v>0.644414025481731</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8251159346077268</v>
+        <v>0.9876112378431905</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7860382864552433</v>
+        <v>0.9755256821886954</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6113019827547211</v>
+        <v>0.9755256821886955</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.718073843702989</v>
+        <v>79.71831449684845</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.029419981476681532</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.021138076335222494</v>
-      </c>
+        <v>0.00841283348652973</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5618640141996256</v>
+        <v>0.9755256821886954</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8040038154869638</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8041168737691593</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7667196023504177</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5777671878067748</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.105084951633552</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.030734532873965492</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.029254792543638542</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.4886581090282627</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>106.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9905143269995896</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9944599875743648</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9934890952216815</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9880397367059711</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.19146195951337386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>106.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8474629553496787</v>
+        <v>0.9960252072491448</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8383410968979796</v>
+        <v>0.9929293277448755</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7923394049658311</v>
+        <v>0.9901512694838572</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.717999893388895</v>
+        <v>0.988130812170958</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.330188679245283</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0575956389327954</v>
+        <v>0.7359953318340962</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>106.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8748314286527737</v>
+        <v>0.9985981444350704</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8522514264301181</v>
+        <v>0.9993322401822571</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8147297430064627</v>
+        <v>0.9996232957396474</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7332504408946054</v>
+        <v>0.9950189724894495</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9150943396226414</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2430218519191878</v>
+        <v>0.8180906045156402</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>106.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7530701283836116</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7859540172156391</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.674085125603487</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6113526981580673</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.547169811320755</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.8633497936106681</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>106.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.812790611451388</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8165045257918059</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7241613706552623</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.652232178078613</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.952830188679245</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.0987618613841421</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.03773584905660377</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04716981132075472</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.02830188679245283</v>
       </c>
-      <c r="E27" t="n" s="227">
-        <v>0.36792452830188677</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.4716981132075472</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2358490566037736</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.42452830188679247</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5188679245283019</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.36792452830188677</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5829,66 +5820,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8233332198890513</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.834880428625681</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.7165620157259018</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.7165620157259021</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>5.05621727137992</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.03271938594367556</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.410377358490566</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.4071199390638494</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.716562015725902</v>
+      <c r="A6" t="n" s="260">
+        <v>0.7172275238573582</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.8326547092749043</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.7857180024806267</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.6238559864340943</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>4.975668605116211</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.02517420723346392</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>1.9025157232704402</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>1.0068201093316804</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.6438336474576879</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.8233332198890513</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.834880428625681</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.7165620157259018</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.7165620157259021</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>5.05621727137992</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.03271938594367556</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.716562015725902</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.716562015725902</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5134611223811676</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.716562015725902</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.716562015725902</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.716562015725902</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.5134611223811676</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.716562015725902</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5134611223811676</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.716562015725902</v>
+      <c r="B12" t="n" s="287">
+        <v>0.3146809828618624</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.676524175875368</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.5111722961186932</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.5111722961186933</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>2.09142113697718</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.042543336394074115</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.5111722961186932</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.44635814306907395</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.7833318760124237</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.6438336474576878</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.6438336474576878</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>3.6153535720710788</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.038337756568013394</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.6438336474576879</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>106.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9088592801866847</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9264345675021798</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7842267331923433</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.716562015725902</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.6783617514616518</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8298842367789094</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.6840916393086888</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6149487193835355</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.3183515492264467</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>106.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.9146663650616265</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9089790027151878</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.8593936272493898</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.756172189842532</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.4245283018867925</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.3518813219788135</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>106.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.931741998944535</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8578916427781139</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.7582973653212538</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.7180147924455104</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.3962264150943398</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.6828504462484046</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>106.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.942193048984797</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9264345675021798</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7842267331923433</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.716562015725902</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.3962264150943398</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.6828504462484046</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.11320754716981132</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.19811320754716982</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.05660377358490566</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.44339622641509435</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.16037735849056603</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.02830188679245283</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.11320754716981132</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.2358490566037736</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.29245283018867924</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.0660377358490566</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.08490566037735849</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.20754716981132076</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6202,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.9215026336839882</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.9250392204178013</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8605329961687842</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.860532996168784</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>12.340309500162594</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.01484424410220332</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.6367924528301887</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.2199395357146356</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8605329961687841</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7343059990488483</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.862276585680885</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8170479799722069</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.6760584340481844</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>6.260929486419267</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.018909995221232</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.7358490566037736</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.7666555984460892</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.6266884070395676</v>
       </c>
     </row>
     <row r="7">
@@ -6275,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.8605329961687841</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.8605329961687841</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.7405170374952248</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.8605329961687841</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8605329961687841</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.8605329961687841</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.866829753076982</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8732161846194968</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.7749633715892704</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.7749633715892705</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>6.887442076094677</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.025056742343214276</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.7749633715892705</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.7405170374952248</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.8605329961687841</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7405170374952248</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.8605329961687841</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.3173237753882916</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.7705082354156398</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.6266884070395677</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.6266884070395677</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>3.3574548385696192</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.031666009116742014</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.6266884070395676</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.36018111089853977</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.7703835996930319</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.6265235235157154</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.6265235235157154</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>3.3550896132119776</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.03481135662098795</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.6265235235157154</v>
       </c>
     </row>
     <row r="14">
@@ -6363,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>106.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9686864104115064</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9645032390222399</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.89472063619434</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8605329961687838</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.7735849056603774</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.340099632883953</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.7100354201969382</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8482267541438038</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.7061816281203489</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.6648760073402953</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.19146195951337386</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>106.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9600629106737913</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9645032390222399</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.89472063619434</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8605329961687838</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.5</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.1892374507581378</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.930816684000825</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.9040452016654211</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8474088470983057</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.7900312656862377</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.330188679245283</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.0575956389327954</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>106.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.948973145562199</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9041072724428533</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8475294733074652</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.7915834774849131</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.9150943396226414</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.2430218519191878</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.29245283018867924</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="C24" t="n" s="455">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="C26" t="n" s="454">
         <v>0.04716981132075472</v>
       </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4528301886792453</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="F24" t="n" s="458">
+      <c r="D26" t="n" s="455">
+        <v>0.02830188679245283</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.36792452830188677</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="H26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
         <v>0.03773584905660377</v>
       </c>
-      <c r="G24" t="n" s="459">
+      <c r="C27" t="n" s="454">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.2358490566037736</v>
+      </c>
+      <c r="F27" t="n" s="457">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="G27" t="n" s="458">
+        <v>0.42452830188679247</v>
+      </c>
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6552,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6601,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9922237176611335</v>
+        <v>0.40291120815138304</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9950141365316014</v>
+        <v>0.4029271052828516</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9900777440765356</v>
+        <v>0.25229099223690254</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>199.56706452918115</v>
+        <v>0.6748373755498152</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.0012061841496222201</v>
+        <v>0.11598266016921792</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>0.1509433962264151</v>
+        <v>1.6745283018867925</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>0.7751184589060741</v>
+        <v>1.0757997088106543</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9900777440765356</v>
+        <v>0.2522909922369025</v>
       </c>
     </row>
     <row r="7">
@@ -6672,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.980253939315682</v>
+        <v>0.063650744763881</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.980253939315682</v>
+        <v>0.063650744763881</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.980253939315682</v>
+        <v>0.063650744763881</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9900777440765357</v>
+        <v>0.25229099223690254</v>
       </c>
     </row>
     <row r="13">
@@ -6728,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6757,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>106.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9972466880642853</v>
+        <v>0.7889394489618774</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9975163517648559</v>
+        <v>0.7912935587495018</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9925552083869738</v>
+        <v>0.39745549247732354</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9900777440765353</v>
+        <v>0.2522909922369024</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>0.14150943396226415</v>
+        <v>1.1320754716981132</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>0.7359953318340962</v>
+        <v>1.352778246693066</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>106.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9977721369787664</v>
+        <v>0.7936359968367275</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.997516351764856</v>
+        <v>0.7912935587495018</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9925552083869738</v>
+        <v>0.3974554924773233</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9900777440765357</v>
+        <v>0.2522909922369025</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>0.16037735849056603</v>
+        <v>2.2169811320754715</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>0.8180906045156402</v>
+        <v>1.366292982462519</v>
       </c>
     </row>
     <row r="19">
@@ -6819,64 +6993,73 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="567">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="E22" t="s" s="567">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="F22" t="s" s="567">
         <v>42</v>
       </c>
-      <c r="F22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="567">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.9622641509433962</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C23" t="n" s="569">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="D23" t="n" s="570">
         <v>0.018867924528301886</v>
       </c>
-      <c r="D23" t="n" s="570">
-        <v>0.009433962264150943</v>
-      </c>
       <c r="E23" t="n" s="571">
-        <v>0.009433962264150943</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="F23" t="n" s="572">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="G23" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.9622641509433962</v>
+        <v>0.19811320754716982</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.0</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.02830188679245283</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.009433962264150943</v>
+        <v>0.46226415094339623</v>
       </c>
       <c r="F24" t="n" s="572">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="G24" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
@@ -6906,8 +7089,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="574">
-        <v>48</v>
+      <c r="A1" t="s" s="575">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6921,66 +7104,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="588">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="602">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="602">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="602">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="602">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="602">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="602">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="602">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="602">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="602">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="603">
-        <v>0.40291120815138304</v>
-      </c>
-      <c r="B6" t="n" s="604">
-        <v>0.4029271052828516</v>
-      </c>
-      <c r="C6" t="n" s="605">
-        <v>0.25229099223690254</v>
-      </c>
-      <c r="D6" t="n" s="606">
-        <v>0.25229099223690254</v>
-      </c>
-      <c r="E6" t="n" s="607">
-        <v>0.6748373755498152</v>
-      </c>
-      <c r="F6" t="n" s="608">
-        <v>0.11598266016921792</v>
-      </c>
-      <c r="G6" t="n" s="609">
-        <v>1.6745283018867925</v>
-      </c>
-      <c r="H6" t="n" s="610">
-        <v>1.0757997088106543</v>
-      </c>
-      <c r="I6" t="n" s="611">
-        <v>0.2522909922369025</v>
+      <c r="A6" t="n" s="604">
+        <v>0.9215026336839882</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.9250392204178013</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.8605329961687842</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.860532996168784</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>12.340309500162594</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.01484424410220332</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>1.6367924528301887</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.2199395357146356</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.8605329961687841</v>
       </c>
     </row>
     <row r="7">
@@ -6994,81 +7177,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="615">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="629">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="629">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="629">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="629">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="629">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="629">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="629">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="629">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="625">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="630">
-        <v>0.25229099223690254</v>
-      </c>
-      <c r="C11" t="n" s="631">
-        <v>0.25229099223690254</v>
-      </c>
-      <c r="D11" t="n" s="632">
-        <v>0.063650744763881</v>
-      </c>
-      <c r="E11" t="n" s="633">
-        <v>0.25229099223690254</v>
-      </c>
-      <c r="F11" s="634"/>
-      <c r="G11" s="635"/>
-      <c r="H11" t="n" s="636">
-        <v>0.25229099223690254</v>
-      </c>
-      <c r="I11" t="n" s="637">
-        <v>0.25229099223690254</v>
+      <c r="A11" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.8605329961687841</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.8605329961687841</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.7405170374952248</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.8605329961687841</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.8605329961687841</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.8605329961687841</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="625">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="630">
-        <v>0.063650744763881</v>
-      </c>
-      <c r="C12" t="n" s="631">
-        <v>0.25229099223690254</v>
-      </c>
-      <c r="D12" s="632"/>
-      <c r="E12" s="633"/>
-      <c r="F12" s="634"/>
-      <c r="G12" s="635"/>
-      <c r="H12" t="n" s="636">
-        <v>0.063650744763881</v>
-      </c>
-      <c r="I12" t="n" s="637">
-        <v>0.25229099223690254</v>
+      <c r="A12" t="s" s="626">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.7405170374952248</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.8605329961687841</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.7405170374952248</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.8605329961687841</v>
       </c>
     </row>
     <row r="13">
@@ -7082,84 +7265,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="641">
-        <v>30</v>
+      <c r="A15" t="s" s="642">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="655">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="655">
+      <c r="B16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="655">
+      <c r="C16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="655">
+      <c r="D16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="655">
+      <c r="E16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="655">
+      <c r="F16" t="s" s="656">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="655">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="651">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="656">
+      <c r="A17" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>106.0</v>
       </c>
-      <c r="C17" t="n" s="657">
-        <v>0.7889394489618774</v>
-      </c>
-      <c r="D17" t="n" s="658">
-        <v>0.7912935587495018</v>
-      </c>
-      <c r="E17" t="n" s="659">
-        <v>0.39745549247732354</v>
-      </c>
-      <c r="F17" t="n" s="660">
-        <v>0.2522909922369024</v>
-      </c>
-      <c r="G17" t="n" s="661">
-        <v>1.1320754716981132</v>
-      </c>
-      <c r="H17" t="n" s="662">
-        <v>1.352778246693066</v>
+      <c r="C17" t="n" s="658">
+        <v>0.9686864104115064</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.9645032390222399</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.89472063619434</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.8605329961687838</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>1.7735849056603774</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.340099632883953</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="651">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="656">
+      <c r="A18" t="s" s="652">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>106.0</v>
       </c>
-      <c r="C18" t="n" s="657">
-        <v>0.7936359968367275</v>
-      </c>
-      <c r="D18" t="n" s="658">
-        <v>0.7912935587495018</v>
-      </c>
-      <c r="E18" t="n" s="659">
-        <v>0.3974554924773233</v>
-      </c>
-      <c r="F18" t="n" s="660">
-        <v>0.2522909922369025</v>
-      </c>
-      <c r="G18" t="n" s="661">
-        <v>2.2169811320754715</v>
-      </c>
-      <c r="H18" t="n" s="662">
-        <v>1.366292982462519</v>
+      <c r="C18" t="n" s="658">
+        <v>0.9600629106737913</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.9645032390222399</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.89472063619434</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.8605329961687838</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>1.5</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.1892374507581378</v>
       </c>
     </row>
     <row r="19">
@@ -7173,74 +7356,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="666">
-        <v>36</v>
+      <c r="A21" t="s" s="667">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="680">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="680">
+      <c r="B22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="680">
+      <c r="C22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="680">
+      <c r="D22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="680">
+      <c r="E22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="680">
-        <v>43</v>
+      <c r="F22" t="s" s="681">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="681">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="676">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="681">
-        <v>0.4716981132075472</v>
-      </c>
-      <c r="C23" t="n" s="682">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="D23" t="n" s="683">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="E23" t="n" s="684">
-        <v>0.20754716981132076</v>
-      </c>
-      <c r="F23" t="n" s="685">
+      <c r="A23" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.29245283018867924</v>
+      </c>
+      <c r="C23" t="n" s="683">
         <v>0.05660377358490566</v>
       </c>
-      <c r="G23" t="n" s="686">
+      <c r="D23" t="n" s="684">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="F23" t="n" s="686">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="G23" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="676">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="681">
-        <v>0.19811320754716982</v>
-      </c>
-      <c r="C24" t="n" s="682">
-        <v>0.11320754716981132</v>
-      </c>
-      <c r="D24" t="n" s="683">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="E24" t="n" s="684">
-        <v>0.46226415094339623</v>
-      </c>
-      <c r="F24" t="n" s="685">
+      <c r="A24" t="s" s="677">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="682">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="C24" t="n" s="683">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="E24" t="n" s="685">
         <v>0.1320754716981132</v>
       </c>
-      <c r="G24" t="n" s="686">
+      <c r="F24" t="n" s="686">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7270,8 +7453,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="688">
-        <v>49</v>
+      <c r="A1" t="s" s="689">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7285,66 +7468,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="702">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="716">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="716">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="716">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="716">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="716">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="716">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="716">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="716">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="716">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="717">
-        <v>0.7535921285333854</v>
-      </c>
-      <c r="B6" t="n" s="718">
-        <v>0.754953511838407</v>
-      </c>
-      <c r="C6" t="n" s="719">
-        <v>0.877127909525583</v>
-      </c>
-      <c r="D6" t="n" s="720">
-        <v>0.23552417162766284</v>
-      </c>
-      <c r="E6" t="n" s="721">
-        <v>3.0808583199958424</v>
-      </c>
-      <c r="F6" t="n" s="722">
-        <v>0.03535161673844719</v>
-      </c>
-      <c r="G6" t="n" s="723">
-        <v>2.1669811320754717</v>
-      </c>
-      <c r="H6" t="n" s="724">
-        <v>0.6290918167694802</v>
-      </c>
-      <c r="I6" t="n" s="725">
-        <v>0.22208222516446408</v>
+      <c r="A6" t="n" s="718">
+        <v>0.6781474744086502</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.6918471290095961</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.876887327801807</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.1833496472508238</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>2.245142570912932</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.04342198867271072</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>1.5169811320754718</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.5277935559817389</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.12193971447056498</v>
       </c>
     </row>
     <row r="7">
@@ -7358,325 +7541,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="729">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="743">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="743">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="743">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="743">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="743">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="743">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="743">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="743">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="739">
+      <c r="A11" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.6772682951014741</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.6609031512933584</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.8476060974507899</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.17800787517066277</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>1.9490100064749263</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.04446364352705017</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.09040785513988328</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.16098021795421824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.6729497551293316</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.6647494441380102</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.8512949558718039</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.1805400981246564</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>1.9828436747220877</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.04313368058324493</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.08720552900848987</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.152124435907604</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.6762232348646128</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.6635424734668535</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.8471909576476572</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.1797409391206427</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>1.9721433498723755</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.0424340030586781</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.08769104989493443</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.16098021795421824</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="744">
-        <v>0.7244782888866858</v>
-      </c>
-      <c r="C11" t="n" s="745">
-        <v>0.7302121886567217</v>
-      </c>
-      <c r="D11" t="n" s="746">
-        <v>0.8565091489539699</v>
-      </c>
-      <c r="E11" t="n" s="747">
-        <v>0.23120400620150575</v>
-      </c>
-      <c r="F11" t="n" s="748">
-        <v>2.7066166741224595</v>
-      </c>
-      <c r="G11" t="n" s="749">
-        <v>0.039731972553097954</v>
-      </c>
-      <c r="H11" t="n" s="750">
-        <v>0.0573453709719994</v>
-      </c>
-      <c r="I11" t="n" s="751">
-        <v>0.2076339860810954</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="739">
+      <c r="B14" t="n" s="745">
+        <v>0.6818152818311499</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.7132216753003836</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.8809234077785105</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.21650656206244698</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>2.4870138844957745</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.044428790601077676</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.10529669188217809</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.1955907212787535</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="744">
-        <v>0.7249224693304092</v>
-      </c>
-      <c r="C12" t="n" s="745">
-        <v>0.7303500075762813</v>
-      </c>
-      <c r="D12" t="n" s="746">
-        <v>0.8525124540487389</v>
-      </c>
-      <c r="E12" t="n" s="747">
-        <v>0.23132839908689784</v>
-      </c>
-      <c r="F12" t="n" s="748">
-        <v>2.7085111370173336</v>
-      </c>
-      <c r="G12" t="n" s="749">
-        <v>0.03960009629843445</v>
-      </c>
-      <c r="H12" t="n" s="750">
-        <v>0.0550115322138275</v>
-      </c>
-      <c r="I12" t="n" s="751">
-        <v>0.21547725518866404</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="739">
+      <c r="B15" t="n" s="745">
+        <v>0.6434386566439008</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.6624117316730972</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.8570815692871285</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.17899603627782198</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>1.96218824473975</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.047629270923682764</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.11444596324881844</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.11798452351063818</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="744">
-        <v>0.7149197811293746</v>
-      </c>
-      <c r="C13" t="n" s="745">
-        <v>0.7081922766000145</v>
-      </c>
-      <c r="D13" t="n" s="746">
-        <v>0.8567934579228798</v>
-      </c>
-      <c r="E13" t="n" s="747">
-        <v>0.21238578271269354</v>
-      </c>
-      <c r="F13" t="n" s="748">
-        <v>2.4269140938030755</v>
-      </c>
-      <c r="G13" t="n" s="749">
-        <v>0.04104663253227107</v>
-      </c>
-      <c r="H13" t="n" s="750">
-        <v>0.06866192593344289</v>
-      </c>
-      <c r="I13" t="n" s="751">
-        <v>0.2010290161052954</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="739">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="744">
-        <v>0.7230495772482706</v>
-      </c>
-      <c r="C14" t="n" s="745">
-        <v>0.7217436289878008</v>
-      </c>
-      <c r="D14" t="n" s="746">
-        <v>0.8591829543774387</v>
-      </c>
-      <c r="E14" t="n" s="747">
-        <v>0.22372356671519483</v>
-      </c>
-      <c r="F14" t="n" s="748">
-        <v>2.5938080999272377</v>
-      </c>
-      <c r="G14" t="n" s="749">
-        <v>0.039661891757965924</v>
-      </c>
-      <c r="H14" t="n" s="750">
-        <v>0.06727954562509039</v>
-      </c>
-      <c r="I14" t="n" s="751">
-        <v>0.23919767102853795</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="739">
+      <c r="B16" t="n" s="745">
+        <v>0.6501940865711644</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.6660787103427959</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8569535681793268</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.1814250954777915</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>1.9947177103519715</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.04649328577042394</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.11243276242464843</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.11798452351063818</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.6403966395636064</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.6579085453099014</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.884806801716598</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.1760652380555764</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>1.9231949126174528</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.04850774939996696</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.1379371865305055</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.07645643386292886</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="744">
-        <v>0.7134898219785172</v>
-      </c>
-      <c r="C15" t="n" s="745">
-        <v>0.7222995885142822</v>
-      </c>
-      <c r="D15" t="n" s="746">
-        <v>0.8356501448800526</v>
-      </c>
-      <c r="E15" t="n" s="747">
-        <v>0.22420500697076504</v>
-      </c>
-      <c r="F15" t="n" s="748">
-        <v>2.601002946484401</v>
-      </c>
-      <c r="G15" t="n" s="749">
-        <v>0.041609650458314364</v>
-      </c>
-      <c r="H15" t="n" s="750">
-        <v>0.06377294928174779</v>
-      </c>
-      <c r="I15" t="n" s="751">
-        <v>0.1955907212787535</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="739">
+      <c r="B18" t="n" s="745">
+        <v>0.6659331111591537</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.6861049663094371</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.8918019957841042</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.19540690644758069</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>2.185778342023078</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.04509011750405192</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.13476033926813874</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.13002401358422183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="744">
-        <v>0.7186855005159959</v>
-      </c>
-      <c r="C16" t="n" s="745">
-        <v>0.727935779702209</v>
-      </c>
-      <c r="D16" t="n" s="746">
-        <v>0.8369060536257031</v>
-      </c>
-      <c r="E16" t="n" s="747">
-        <v>0.22916185294795335</v>
-      </c>
-      <c r="F16" t="n" s="748">
-        <v>2.675602763588092</v>
-      </c>
-      <c r="G16" t="n" s="749">
-        <v>0.04066447682025838</v>
-      </c>
-      <c r="H16" t="n" s="750">
-        <v>0.06408996924444038</v>
-      </c>
-      <c r="I16" t="n" s="751">
-        <v>0.2010290161052954</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="739">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="744">
-        <v>0.7565044702770027</v>
-      </c>
-      <c r="C17" t="n" s="745">
-        <v>0.757540902424057</v>
-      </c>
-      <c r="D17" t="n" s="746">
-        <v>0.8299931741869446</v>
-      </c>
-      <c r="E17" t="n" s="747">
-        <v>0.2576956549114611</v>
-      </c>
-      <c r="F17" t="n" s="748">
-        <v>3.1244070030689612</v>
-      </c>
-      <c r="G17" t="n" s="749">
-        <v>0.035057313131912474</v>
-      </c>
-      <c r="H17" t="n" s="750">
-        <v>0.04856681907822784</v>
-      </c>
-      <c r="I17" t="n" s="751">
-        <v>0.2438477219176683</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="739">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="744">
-        <v>0.7594321701674571</v>
-      </c>
-      <c r="C18" t="n" s="745">
-        <v>0.7588692570925252</v>
-      </c>
-      <c r="D18" t="n" s="746">
-        <v>0.8323349482621912</v>
-      </c>
-      <c r="E18" t="n" s="747">
-        <v>0.25908410854353586</v>
-      </c>
-      <c r="F18" t="n" s="748">
-        <v>3.1471277695341966</v>
-      </c>
-      <c r="G18" t="n" s="749">
-        <v>0.03455669355742037</v>
-      </c>
-      <c r="H18" t="n" s="750">
-        <v>0.04870388882456243</v>
-      </c>
-      <c r="I18" t="n" s="751">
-        <v>0.2438477219176683</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="739">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="744">
-        <v>0.7344862352520558</v>
-      </c>
-      <c r="C19" t="n" s="745">
-        <v>0.7328279245369811</v>
-      </c>
-      <c r="D19" t="n" s="746">
-        <v>0.8806756435406321</v>
-      </c>
-      <c r="E19" t="n" s="747">
-        <v>0.2335798398164142</v>
-      </c>
-      <c r="F19" t="n" s="748">
-        <v>2.7429061336854303</v>
-      </c>
-      <c r="G19" t="n" s="749">
-        <v>0.0382843663401574</v>
-      </c>
-      <c r="H19" t="n" s="750">
-        <v>0.07838386609752962</v>
-      </c>
-      <c r="I19" t="n" s="751">
-        <v>0.140128971397471</v>
+      <c r="B19" t="n" s="745">
+        <v>0.6028428132135228</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.6513951876908517</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8316390260905024</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.17192477007223955</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>1.8685777266700043</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.054867900520774435</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.12215082304885544</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.11798452351063818</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.7555088358604509</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.7528516471609553</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.88968383596876</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.25287349837020706</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>3.046152800586333</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.035293296518825054</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.07567239753939511</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.23919767102853795</v>
+      <c r="A20" t="s" s="740">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="745">
+        <v>0.6085884290588508</v>
+      </c>
+      <c r="C20" t="n" s="746">
+        <v>0.6560670406457996</v>
+      </c>
+      <c r="D20" t="n" s="747">
+        <v>0.833688840534201</v>
+      </c>
+      <c r="E20" t="n" s="748">
+        <v>0.17488295169881907</v>
+      </c>
+      <c r="F20" t="n" s="749">
+        <v>1.9075433825175987</v>
+      </c>
+      <c r="G20" t="n" s="750">
+        <v>0.053672767608665004</v>
+      </c>
+      <c r="H20" t="n" s="751">
+        <v>0.1225992550736089</v>
+      </c>
+      <c r="I20" t="n" s="752">
+        <v>0.11798452351063818</v>
       </c>
     </row>
     <row r="21">
@@ -7690,292 +7873,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23" t="s" s="756">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
+      <c r="B24" t="s" s="770">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="769">
+      <c r="C24" t="s" s="770">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="769">
+      <c r="D24" t="s" s="770">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="769">
+      <c r="E24" t="s" s="770">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="769">
+      <c r="F24" t="s" s="770">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="770">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="769">
+      <c r="H24" t="s" s="770">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="765">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>106.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.3517341496549417</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.5521511243949611</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.5885022327829137</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.31934647619779954</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>0.19146195951337386</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>106.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.35170672988230217</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.5344431259907352</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.5683955006077479</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.22113251927089714</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>0.7359953318340962</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>106.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.34654361986152865</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.5400316964384828</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.5762036446906601</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.20006643348173855</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>0.16037735849056603</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>0.8180906045156402</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="770">
+      <c r="B28" t="n" s="771">
         <v>106.0</v>
       </c>
-      <c r="C25" t="n" s="771">
-        <v>0.6063012603572815</v>
-      </c>
-      <c r="D25" t="n" s="772">
-        <v>0.5863891902830781</v>
-      </c>
-      <c r="E25" t="n" s="773">
-        <v>0.5555404256276771</v>
-      </c>
-      <c r="F25" t="n" s="774">
-        <v>0.4826012462175115</v>
-      </c>
-      <c r="G25" t="n" s="775">
+      <c r="C28" t="n" s="772">
+        <v>0.21374340135755307</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.2829273244253213</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.21081914469853652</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.17874031462095716</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>0.19146195951337386</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>106.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.5580201593571007</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.5452408500523735</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.5094016804822445</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.3957877107988283</v>
+      </c>
+      <c r="G29" t="n" s="776">
         <v>3.330188679245283</v>
       </c>
-      <c r="H25" t="n" s="776">
+      <c r="H29" t="n" s="777">
         <v>1.0575956389327954</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="765">
-        <v>19</v>
-      </c>
-      <c r="B26" t="n" s="770">
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="771">
         <v>106.0</v>
       </c>
-      <c r="C26" t="n" s="771">
-        <v>0.6175186855822509</v>
-      </c>
-      <c r="D26" t="n" s="772">
-        <v>0.5855874376316126</v>
-      </c>
-      <c r="E26" t="n" s="773">
-        <v>0.5627875935550601</v>
-      </c>
-      <c r="F26" t="n" s="774">
-        <v>0.4709655286707724</v>
-      </c>
-      <c r="G26" t="n" s="775">
+      <c r="C30" t="n" s="772">
+        <v>0.5596598083369457</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.5282542824324126</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.4928049095057833</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.3642670220727764</v>
+      </c>
+      <c r="G30" t="n" s="776">
         <v>3.9150943396226414</v>
       </c>
-      <c r="H26" t="n" s="776">
+      <c r="H30" t="n" s="777">
         <v>1.2430218519191878</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="765">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="770">
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="771">
         <v>106.0</v>
       </c>
-      <c r="C27" t="n" s="771">
-        <v>0.6841361461763521</v>
-      </c>
-      <c r="D27" t="n" s="772">
-        <v>0.7076787683041563</v>
-      </c>
-      <c r="E27" t="n" s="773">
-        <v>0.6603477833342367</v>
-      </c>
-      <c r="F27" t="n" s="774">
-        <v>0.599917798194409</v>
-      </c>
-      <c r="G27" t="n" s="775">
-        <v>3.547169811320755</v>
-      </c>
-      <c r="H27" t="n" s="776">
-        <v>0.8633497936106681</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="765">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="770">
+      <c r="C31" t="n" s="772">
+        <v>0.6117521408677208</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.5657361110090691</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.43931552874046476</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.4098579728398037</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.352778246693066</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n" s="771">
         <v>106.0</v>
       </c>
-      <c r="C28" t="n" s="771">
-        <v>0.61636733446796</v>
-      </c>
-      <c r="D28" t="n" s="772">
-        <v>0.6346030585712442</v>
-      </c>
-      <c r="E28" t="n" s="773">
-        <v>0.5878717727674614</v>
-      </c>
-      <c r="F28" t="n" s="774">
-        <v>0.4892204329714246</v>
-      </c>
-      <c r="G28" t="n" s="775">
-        <v>3.952830188679245</v>
-      </c>
-      <c r="H28" t="n" s="776">
-        <v>1.0987618613841421</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="765">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n" s="770">
+      <c r="C32" t="n" s="772">
+        <v>0.5336856762786012</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.43047857672263784</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.28973151021814947</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.309055457612193</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>2.2169811320754715</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.366292982462519</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n" s="771">
         <v>106.0</v>
       </c>
-      <c r="C29" t="n" s="771">
-        <v>0.6801590975447063</v>
-      </c>
-      <c r="D29" t="n" s="772">
-        <v>0.6315000193563477</v>
-      </c>
-      <c r="E29" t="n" s="773">
-        <v>0.6276057571528287</v>
-      </c>
-      <c r="F29" t="n" s="774">
-        <v>0.5374012183607463</v>
-      </c>
-      <c r="G29" t="n" s="775">
+      <c r="C33" t="n" s="772">
+        <v>0.7164448545727101</v>
+      </c>
+      <c r="D33" t="n" s="773">
+        <v>0.5946906706089826</v>
+      </c>
+      <c r="E33" t="n" s="774">
+        <v>0.584082756677221</v>
+      </c>
+      <c r="F33" t="n" s="775">
+        <v>0.5525835642437938</v>
+      </c>
+      <c r="G33" t="n" s="776">
         <v>1.7735849056603774</v>
       </c>
-      <c r="H29" t="n" s="776">
+      <c r="H33" t="n" s="777">
         <v>1.340099632883953</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="765">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n" s="770">
+    <row r="34">
+      <c r="A34" t="s" s="766">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="771">
         <v>106.0</v>
       </c>
-      <c r="C30" t="n" s="771">
-        <v>0.6447740309530654</v>
-      </c>
-      <c r="D30" t="n" s="772">
-        <v>0.5995515329731306</v>
-      </c>
-      <c r="E30" t="n" s="773">
-        <v>0.5937790653364248</v>
-      </c>
-      <c r="F30" t="n" s="774">
-        <v>0.5121056808482335</v>
-      </c>
-      <c r="G30" t="n" s="775">
+      <c r="C34" t="n" s="772">
+        <v>0.6934166096414085</v>
+      </c>
+      <c r="D34" t="n" s="773">
+        <v>0.5740039157399986</v>
+      </c>
+      <c r="E34" t="n" s="774">
+        <v>0.5614071204230293</v>
+      </c>
+      <c r="F34" t="n" s="775">
+        <v>0.5447798417385883</v>
+      </c>
+      <c r="G34" t="n" s="776">
         <v>1.5</v>
       </c>
-      <c r="H30" t="n" s="776">
+      <c r="H34" t="n" s="777">
         <v>1.1892374507581378</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="765">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="770">
-        <v>106.0</v>
-      </c>
-      <c r="C31" t="n" s="771">
-        <v>0.3125578412432491</v>
-      </c>
-      <c r="D31" t="n" s="772">
-        <v>0.4156418880723563</v>
-      </c>
-      <c r="E31" t="n" s="773">
-        <v>0.44061473682803864</v>
-      </c>
-      <c r="F31" t="n" s="774">
-        <v>0.20165009851785753</v>
-      </c>
-      <c r="G31" t="n" s="775">
-        <v>0.14150943396226415</v>
-      </c>
-      <c r="H31" t="n" s="776">
-        <v>0.7359953318340962</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="765">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="770">
-        <v>106.0</v>
-      </c>
-      <c r="C32" t="n" s="771">
-        <v>0.30277054240874185</v>
-      </c>
-      <c r="D32" t="n" s="772">
-        <v>0.40669285230198715</v>
-      </c>
-      <c r="E32" t="n" s="773">
-        <v>0.43092683340279736</v>
-      </c>
-      <c r="F32" t="n" s="774">
-        <v>0.17832890483167171</v>
-      </c>
-      <c r="G32" t="n" s="775">
-        <v>0.16037735849056603</v>
-      </c>
-      <c r="H32" t="n" s="776">
-        <v>0.8180906045156402</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>106.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.5871067639560337</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.5710761690102756</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.4590220191834507</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4176236781284126</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>1.1320754716981132</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.352778246693066</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>106.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.4859771499903979</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.44672225718307546</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.3125568019245868</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.2939638113223829</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>2.2169811320754715</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.366292982462519</v>
       </c>
     </row>
     <row r="35">
@@ -7989,291 +8172,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="781">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
+      <c r="B38" t="s" s="795">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="794">
+      <c r="C38" t="s" s="795">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="794">
+      <c r="D38" t="s" s="795">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="794">
+      <c r="E38" t="s" s="795">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="794">
+      <c r="F38" t="s" s="795">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="794">
+      <c r="G38" t="s" s="795">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="795">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="790">
+      <c r="A39" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="796">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="796">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.02830188679245283</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="795">
+      <c r="B42" t="n" s="796">
         <v>0.03773584905660377</v>
       </c>
-      <c r="C39" t="n" s="796">
+      <c r="C42" t="n" s="797">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n" s="796">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="C43" t="n" s="797">
         <v>0.04716981132075472</v>
       </c>
-      <c r="D39" t="n" s="797">
+      <c r="D43" t="n" s="798">
         <v>0.02830188679245283</v>
       </c>
-      <c r="E39" t="n" s="798">
+      <c r="E43" t="n" s="799">
         <v>0.36792452830188677</v>
       </c>
-      <c r="F39" t="n" s="799">
+      <c r="F43" t="n" s="800">
         <v>0.4716981132075472</v>
       </c>
-      <c r="G39" t="n" s="800">
+      <c r="G43" t="n" s="801">
         <v>0.04716981132075472</v>
       </c>
-      <c r="H39" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="790">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="795">
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n" s="796">
         <v>0.03773584905660377</v>
       </c>
-      <c r="C40" t="n" s="796">
+      <c r="C44" t="n" s="797">
         <v>0.009433962264150943</v>
       </c>
-      <c r="D40" t="n" s="797">
+      <c r="D44" t="n" s="798">
         <v>0.04716981132075472</v>
       </c>
-      <c r="E40" t="n" s="798">
+      <c r="E44" t="n" s="799">
         <v>0.2358490566037736</v>
       </c>
-      <c r="F40" t="n" s="799">
+      <c r="F44" t="n" s="800">
         <v>0.24528301886792453</v>
       </c>
-      <c r="G40" t="n" s="800">
+      <c r="G44" t="n" s="801">
         <v>0.42452830188679247</v>
       </c>
-      <c r="H40" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="790">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="C41" t="n" s="796">
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="796">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="G45" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="791">
+        <v>28</v>
+      </c>
+      <c r="B46" t="n" s="796">
+        <v>0.19811320754716982</v>
+      </c>
+      <c r="C46" t="n" s="797">
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="D46" t="n" s="798">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="E46" t="n" s="799">
+        <v>0.46226415094339623</v>
+      </c>
+      <c r="F46" t="n" s="800">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="G46" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="791">
+        <v>29</v>
+      </c>
+      <c r="B47" t="n" s="796">
+        <v>0.29245283018867924</v>
+      </c>
+      <c r="C47" t="n" s="797">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="D47" t="n" s="798">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="E47" t="n" s="799">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="F47" t="n" s="800">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="G47" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="791">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="796">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="C48" t="n" s="797">
         <v>0.04716981132075472</v>
       </c>
-      <c r="D41" t="n" s="797">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="E41" t="n" s="798">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="F41" t="n" s="799">
-        <v>0.5188679245283019</v>
-      </c>
-      <c r="G41" t="n" s="800">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="H41" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="790">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="C42" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D42" t="n" s="797">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="E42" t="n" s="798">
-        <v>0.36792452830188677</v>
-      </c>
-      <c r="F42" t="n" s="799">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="G42" t="n" s="800">
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="H42" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="790">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="795">
-        <v>0.29245283018867924</v>
-      </c>
-      <c r="C43" t="n" s="796">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="D43" t="n" s="797">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="E43" t="n" s="798">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="F43" t="n" s="799">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="G43" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="790">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="795">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="C44" t="n" s="796">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="D44" t="n" s="797">
+      <c r="D48" t="n" s="798">
         <v>0.4528301886792453</v>
       </c>
-      <c r="E44" t="n" s="798">
+      <c r="E48" t="n" s="799">
         <v>0.1320754716981132</v>
       </c>
-      <c r="F44" t="n" s="799">
+      <c r="F48" t="n" s="800">
         <v>0.03773584905660377</v>
       </c>
-      <c r="G44" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="790">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="795">
-        <v>0.9622641509433962</v>
-      </c>
-      <c r="C45" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="798">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="F45" t="n" s="799">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="G45" t="n" s="800">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.9622641509433962</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.4716981132075472</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.20754716981132076</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.19811320754716982</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.11320754716981132</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.46226415094339623</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
+      <c r="G48" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
